--- a/BaoCao_SystemTest_Search.xlsx
+++ b/BaoCao_SystemTest_Search.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -35,13 +35,36 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>ST_SEARCH_05</t>
+  </si>
+  <si>
+    <t>Tìm kiếm không phân biệt hoa thường</t>
+  </si>
+  <si>
+    <t>1. Nhập 'áo hoodie' (chữ thường)
+2. Enter
+3. Check kết quả</t>
+  </si>
+  <si>
+    <t>Keyword: áo hoodie</t>
+  </si>
+  <si>
+    <t>Vẫn tìm thấy sản phẩm (Số lượng &gt; 0)</t>
+  </si>
+  <si>
+    <t>Tìm thấy: 1 sản phẩm.</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>ST_SEARCH_04</t>
   </si>
   <si>
     <t>Tìm kiếm qua Menu Mục lục</t>
   </si>
   <si>
-    <t>1. Click Menu 'BỘ SƯU TẬP' (để mở dropdown)
+    <t>1. Click Menu 'BỘ SƯU TẬP'
 2. Click mục con 'Áo Hoodie'
 3. Check kết quả</t>
   </si>
@@ -49,13 +72,30 @@
     <t>Chọn: Áo Hoodie</t>
   </si>
   <si>
-    <t>Chuyển trang tìm kiếm &amp; Hiện sản phẩm Hoodie</t>
+    <t>Chuyển trang tìm kiếm &amp; Hiện sản phẩm liên quan (Số lượng &gt; 0)</t>
   </si>
   <si>
     <t>URL hiện tại: http://localhost:8080/ShopDuck/user/search-products?keyword=%C3%81o%20Hoodie | Số SP tìm thấy: 1</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t>ST_SEARCH_06</t>
+  </si>
+  <si>
+    <t>Tìm kiếm ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>1. Nhập '@#$'
+2. Enter
+3. Check không bị lỗi Server (500)</t>
+  </si>
+  <si>
+    <t>Keyword: @#$</t>
+  </si>
+  <si>
+    <t>Hệ thống xử lý an toàn (Không bị Crash/Lỗi Server)</t>
+  </si>
+  <si>
+    <t>Kiểm tra lỗi Server...</t>
   </si>
   <si>
     <t>ST_SEARCH_01</t>
@@ -64,15 +104,15 @@
     <t>Tìm kiếm có kết quả (Gõ phím)</t>
   </si>
   <si>
-    <t>1. Nhập 'Áo'
+    <t>1. Nhập keyword 'Áo' vào ô search
 2. Enter
-3. Check URL &amp; Số lượng SP &gt; 0</t>
+3. Check URL và Số lượng SP</t>
   </si>
   <si>
     <t>Keyword: Áo</t>
   </si>
   <si>
-    <t>Hiển thị danh sách sản phẩm liên quan đến 'Áo'</t>
+    <t>Hiển thị danh sách sản phẩm liên quan đến 'Áo' (Số lượng &gt; 0)</t>
   </si>
   <si>
     <t>URL: http://localhost:8080/ShopDuck/user/search-products?keyword=%C3%81o | Tìm thấy: 12 sản phẩm.</t>
@@ -85,14 +125,14 @@
   </si>
   <si>
     <t>1. Để trống ô search
-2. Nhấn nút Tìm
+2. Nhấn nút Tìm (button)
 3. Check URL không đổi</t>
   </si>
   <si>
     <t>Keyword: (rỗng)</t>
   </si>
   <si>
-    <t>Trình duyệt chặn submit, vẫn ở trang cũ</t>
+    <t>Trình duyệt chặn submit, URL không thay đổi</t>
   </si>
   <si>
     <t>URL sau khi click: http://localhost:8080/ShopDuck/user/view-products</t>
@@ -106,13 +146,13 @@
   <si>
     <t>1. Nhập từ khóa rác 'xyz123'
 2. Enter
-3. Check thông báo lỗi</t>
+3. Check thông báo lỗi và danh sách rỗng</t>
   </si>
   <si>
     <t>Keyword: xyz123_khong_co_dau</t>
   </si>
   <si>
-    <t>Hiện thông báo 'Không tìm thấy' / Danh sách rỗng</t>
+    <t>Hiển thị thông báo 'Không tìm thấy' / Danh sách rỗng</t>
   </si>
   <si>
     <t>Thông báo: Không tìm thấy sản phẩm nào phù hợp</t>
@@ -193,17 +233,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="14.63671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.45703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="43.16015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.28515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="37.51171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="30.42578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="45.50390625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="58.94921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="107.75" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -323,6 +363,52 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
